--- a/data/trans_dic/P34B03_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P34B03_R-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.153788900717686</v>
+        <v>0.1524807279542981</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1762857530391805</v>
+        <v>0.1748254344209363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1834831581016495</v>
+        <v>0.1826873008241413</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1042736162138471</v>
+        <v>0.1105651870500879</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1255475620457387</v>
+        <v>0.122156345180312</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1312277131789733</v>
+        <v>0.1328818843845846</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1436803642948768</v>
+        <v>0.1454200218836455</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1607419096406418</v>
+        <v>0.1592332639150714</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1675049423364895</v>
+        <v>0.1660359325356484</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2344001686373962</v>
+        <v>0.2299933297825059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2607363530189708</v>
+        <v>0.2559547530051008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2607265342648357</v>
+        <v>0.2615181626386679</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1908969490621355</v>
+        <v>0.193243074724022</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.204700981704696</v>
+        <v>0.2025050691807941</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1957385822629641</v>
+        <v>0.1996862212967725</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2042050435067965</v>
+        <v>0.2038091493252694</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2188906336364979</v>
+        <v>0.215657950443393</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2184386727044327</v>
+        <v>0.2167641857542829</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.2132708293343027</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2002312861755592</v>
+        <v>0.2002312861755593</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1041451472725944</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.183789791020545</v>
+        <v>0.18078539068079</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1707553875921132</v>
+        <v>0.172343625033266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1623512311202074</v>
+        <v>0.1657586586751774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06823942201204225</v>
+        <v>0.07120870752572372</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1119713898360081</v>
+        <v>0.111427016640941</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09792722459626715</v>
+        <v>0.09702637812425216</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1406740292938895</v>
+        <v>0.1415066373574813</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1526162553180289</v>
+        <v>0.1478799659246834</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1392332436125067</v>
+        <v>0.1417128930445546</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.269485138721493</v>
+        <v>0.2704421232403783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2608759616179331</v>
+        <v>0.2604934777355359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.242604417255468</v>
+        <v>0.2470040404491567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408504089217124</v>
+        <v>0.1477363376908351</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1900925103230832</v>
+        <v>0.1846225662015445</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.151938160155318</v>
+        <v>0.1524905106723516</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2020368645306391</v>
+        <v>0.2024998337907289</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2095901824205288</v>
+        <v>0.2090236889979025</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1909075045340193</v>
+        <v>0.1926161860645153</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1370942775716782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1624268539339437</v>
+        <v>0.1624268539339438</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.0668906592262055</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1121060526261268</v>
+        <v>0.1096084912225417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1088371544572038</v>
+        <v>0.1093049459231377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1298789980439884</v>
+        <v>0.1289110154616225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04214015023884207</v>
+        <v>0.04094186782838519</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04356313516734374</v>
+        <v>0.04360273460296465</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04692268490171687</v>
+        <v>0.04438244301096426</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09600838267739194</v>
+        <v>0.09674072056862572</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1005586481660829</v>
+        <v>0.09767783409441509</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1125628186997208</v>
+        <v>0.1098840914938512</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1697035322003049</v>
+        <v>0.168034582799286</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1670710492191988</v>
+        <v>0.1683859639319245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2013915105224976</v>
+        <v>0.2003848969454424</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1020953502576232</v>
+        <v>0.1047028422396097</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1328017008005295</v>
+        <v>0.1278505245859993</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1191684928664586</v>
+        <v>0.1206863930077838</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1366975062266423</v>
+        <v>0.1431205911809319</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1502222500902076</v>
+        <v>0.1503488538943987</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1688773229928994</v>
+        <v>0.1686886658808622</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1063002257448843</v>
+        <v>0.1044127787122274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1060331370448582</v>
+        <v>0.1053752563412432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1070670115506479</v>
+        <v>0.106796638245247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04562673973891598</v>
+        <v>0.0459046063650684</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08192390459638113</v>
+        <v>0.08283459883927982</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07606831301408175</v>
+        <v>0.07809561700206652</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08746420876656356</v>
+        <v>0.08637808021500382</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1023223037565613</v>
+        <v>0.102689288511135</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09903603110437126</v>
+        <v>0.09767822048547949</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1445759830324331</v>
+        <v>0.1437702271384852</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1465157115763625</v>
+        <v>0.1456147096944547</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1553669402406939</v>
+        <v>0.1550832771425102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08232732897857237</v>
+        <v>0.08139893121284547</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1238077331354484</v>
+        <v>0.1259133288346421</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1152945824125416</v>
+        <v>0.1166296225703865</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.114969614747462</v>
+        <v>0.115579346178693</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1313706098835284</v>
+        <v>0.1313106850739564</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1328429643562049</v>
+        <v>0.130640825760997</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.08500649219231962</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.08601591636760689</v>
+        <v>0.08601591636760687</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07281905161487461</v>
+        <v>0.07208107970443174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08832589724842284</v>
+        <v>0.09073068756173661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1261940735507038</v>
+        <v>0.1246736583818057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02953379654575146</v>
+        <v>0.02834664260554796</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04699390607352643</v>
+        <v>0.04550294250188095</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02666193096566506</v>
+        <v>0.02634962145204323</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05217161404438159</v>
+        <v>0.05215716647263066</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07116003578365977</v>
+        <v>0.07052364891406467</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07080850549370765</v>
+        <v>0.07125564278213894</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1254126084822199</v>
+        <v>0.1215947367567881</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1388206274795249</v>
+        <v>0.1423842807316362</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2025054764418099</v>
+        <v>0.2052135767589768</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06159257808256385</v>
+        <v>0.05774386016276577</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08233046200038822</v>
+        <v>0.08181310924904907</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04793968827499601</v>
+        <v>0.04705076866278144</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07805303567135247</v>
+        <v>0.08026972605887572</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1028778700443131</v>
+        <v>0.1015962832122839</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1057495632547562</v>
+        <v>0.1072095749150571</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.07762028131283852</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.07056760678573895</v>
+        <v>0.07056760678573894</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.0931038258345271</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2319734197755326</v>
+        <v>0.2298254165290378</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3393821102233542</v>
+        <v>0.3365924484424367</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2293150650618032</v>
+        <v>0.2270077697614321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03615639716913281</v>
+        <v>0.03675538472524194</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0612915189652596</v>
+        <v>0.06112117035404321</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05329527878215734</v>
+        <v>0.05458982685461276</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07785691180754452</v>
+        <v>0.07856007050616008</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1257972340209326</v>
+        <v>0.1239521623888453</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09851364905788534</v>
+        <v>0.09754417300689218</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3342776798770153</v>
+        <v>0.338189339305666</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4485032722845412</v>
+        <v>0.4493787163738935</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4026197033660381</v>
+        <v>0.4132136386540409</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06218053604464114</v>
+        <v>0.06199158453254667</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09467542472761892</v>
+        <v>0.09457006548394153</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09219702691532046</v>
+        <v>0.09472648572261778</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1094777623307797</v>
+        <v>0.1100591223685305</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1652375888293977</v>
+        <v>0.1632772023468532</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1545045298228193</v>
+        <v>0.1511524816543598</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1428601292708241</v>
+        <v>0.141724651782319</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1557553000604651</v>
+        <v>0.1556160245332454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1613951507452153</v>
+        <v>0.1615175032892528</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05831059350051077</v>
+        <v>0.05699032626239612</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08650741299780824</v>
+        <v>0.08586340906677263</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07777866436210222</v>
+        <v>0.07748626929993893</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1020973173182642</v>
+        <v>0.1018014647587964</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1233451202158409</v>
+        <v>0.1237286427342091</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1203399438935183</v>
+        <v>0.1215520422894039</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1684318160001213</v>
+        <v>0.1677031087891963</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.181655352240074</v>
+        <v>0.1821583117725454</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1922130029430949</v>
+        <v>0.1934540563811712</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07526920815897085</v>
+        <v>0.07474550800372708</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1058974855240978</v>
+        <v>0.105382670530908</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09575672708450975</v>
+        <v>0.09605279798530292</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1176061438267487</v>
+        <v>0.1175180081484326</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1394785662665</v>
+        <v>0.1409239546488381</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1389921921597666</v>
+        <v>0.139088154151134</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>67238</v>
+        <v>66666</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>75643</v>
+        <v>75016</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>101029</v>
+        <v>100591</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32789</v>
+        <v>34768</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43572</v>
+        <v>42395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>64093</v>
+        <v>64901</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>108000</v>
+        <v>109307</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>124759</v>
+        <v>123588</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>174042</v>
+        <v>172516</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>102482</v>
+        <v>100556</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>111880</v>
+        <v>109828</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>143561</v>
+        <v>143997</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>60028</v>
+        <v>60766</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>71042</v>
+        <v>70280</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>95601</v>
+        <v>97529</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>153494</v>
+        <v>153196</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>169891</v>
+        <v>167382</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>226964</v>
+        <v>225224</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>76971</v>
+        <v>75712</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>64414</v>
+        <v>65013</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>78450</v>
+        <v>80097</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23066</v>
+        <v>24069</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>41684</v>
+        <v>41481</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41368</v>
+        <v>40987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>106463</v>
+        <v>107093</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>114386</v>
+        <v>110836</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>126096</v>
+        <v>128341</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>112860</v>
+        <v>113260</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>98409</v>
+        <v>98265</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>117229</v>
+        <v>119355</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47609</v>
+        <v>49937</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>70766</v>
+        <v>68730</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>64184</v>
+        <v>64417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>152903</v>
+        <v>153253</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>157088</v>
+        <v>156663</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>172894</v>
+        <v>174442</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>70461</v>
+        <v>68891</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>56804</v>
+        <v>57048</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>61252</v>
+        <v>60796</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10962</v>
+        <v>10650</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7237</v>
+        <v>7243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8798</v>
+        <v>8322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>85318</v>
+        <v>85968</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>69188</v>
+        <v>67206</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>74191</v>
+        <v>72426</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106662</v>
+        <v>105613</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>87197</v>
+        <v>87883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94979</v>
+        <v>94504</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26558</v>
+        <v>27236</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22061</v>
+        <v>21239</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22344</v>
+        <v>22628</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>121476</v>
+        <v>127184</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>103358</v>
+        <v>103445</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>111309</v>
+        <v>111184</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>123203</v>
+        <v>121015</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>121900</v>
+        <v>121143</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>120956</v>
+        <v>120651</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34894</v>
+        <v>35106</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>67659</v>
+        <v>68411</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65464</v>
+        <v>67209</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>168261</v>
+        <v>166172</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>202139</v>
+        <v>202864</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>197113</v>
+        <v>194411</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>167565</v>
+        <v>166631</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>168440</v>
+        <v>167404</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>175522</v>
+        <v>175201</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>62961</v>
+        <v>62251</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>102250</v>
+        <v>103989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>99222</v>
+        <v>100371</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>221175</v>
+        <v>222348</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>259524</v>
+        <v>259406</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>264400</v>
+        <v>260017</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>37181</v>
+        <v>36804</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>54824</v>
+        <v>56317</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>71537</v>
+        <v>70675</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22491</v>
+        <v>21587</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>34693</v>
+        <v>33592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>22133</v>
+        <v>21874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>66368</v>
+        <v>66350</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>96703</v>
+        <v>95838</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>98920</v>
+        <v>99545</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>64035</v>
+        <v>62086</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>86167</v>
+        <v>88379</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>114797</v>
+        <v>116332</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>46904</v>
+        <v>43973</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>60780</v>
+        <v>60398</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39796</v>
+        <v>39058</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>99293</v>
+        <v>102113</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>139806</v>
+        <v>138064</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>147733</v>
+        <v>149773</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>61638</v>
+        <v>61067</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>97452</v>
+        <v>96651</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>54400</v>
+        <v>53853</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40110</v>
+        <v>40775</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>66319</v>
+        <v>66135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>44888</v>
+        <v>45978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>107058</v>
+        <v>108025</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>172238</v>
+        <v>169712</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>106343</v>
+        <v>105297</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>88821</v>
+        <v>89861</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>128785</v>
+        <v>129037</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>95513</v>
+        <v>98026</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>68980</v>
+        <v>68770</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>102441</v>
+        <v>102327</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>77653</v>
+        <v>79783</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>150539</v>
+        <v>151338</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>226238</v>
+        <v>223554</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>166784</v>
+        <v>163166</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>488559</v>
+        <v>484676</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>527344</v>
+        <v>526873</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>555082</v>
+        <v>555503</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>206900</v>
+        <v>202215</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>305509</v>
+        <v>303235</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>282439</v>
+        <v>281377</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>711422</v>
+        <v>709360</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>853217</v>
+        <v>855870</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>850874</v>
+        <v>859444</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>576010</v>
+        <v>573518</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>615035</v>
+        <v>616737</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>661074</v>
+        <v>665342</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>267073</v>
+        <v>265214</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>373987</v>
+        <v>372169</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>347723</v>
+        <v>348798</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>819488</v>
+        <v>818874</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>964818</v>
+        <v>974816</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>982757</v>
+        <v>983435</v>
       </c>
     </row>
     <row r="32">
